--- a/src/main/resources/excel/command_output.xlsx
+++ b/src/main/resources/excel/command_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\TemplateProcessDemo\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E65E08-09EC-4DD2-B824-74EFB9B97F8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EACDA0A-DF5B-48A2-B015-12AC77027961}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Custom command demo</t>
   </si>
   <si>
-    <t>${x = x-2}</t>
-  </si>
-  <si>
-    <t>${x = x+5}</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>Iterazione numero 0</t>
+  </si>
+  <si>
+    <t>Iterazione numero 1</t>
+  </si>
+  <si>
+    <t>Iterazione numero 2</t>
+  </si>
+  <si>
+    <t>Iterazione numero 3</t>
+  </si>
+  <si>
+    <t>Iterazione numero 4</t>
+  </si>
+  <si>
+    <t>Iterazione numero 5</t>
+  </si>
+  <si>
+    <t>Iterazione numero 6</t>
+  </si>
+  <si>
+    <t>Iterazione numero 7</t>
+  </si>
+  <si>
+    <t>Sup</t>
   </si>
 </sst>
 </file>
@@ -75,15 +96,55 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" rgb="FFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="0"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="0"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -91,13 +152,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,36 +511,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="false"/>
-    <col min="2" max="2" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35" customHeight="true">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="true" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A2" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>8.0</v>
-      </c>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15.0" customHeight="true" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3"/>
+    <row r="3" ht="15.0" customHeight="true"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" ht="15.0" customHeight="true"/>
     <row r="9" ht="15.0" customHeight="true"/>
+    <row r="10" ht="15.0" customHeight="true"/>
+    <row r="11" ht="15.0" customHeight="true"/>
+    <row r="12" ht="15.0" customHeight="true"/>
+    <row r="13" ht="15.0" customHeight="true"/>
+    <row r="14" ht="15.0" customHeight="true"/>
+    <row r="15" ht="15.0" customHeight="true"/>
+    <row r="16" ht="15.0" customHeight="true"/>
+    <row r="17" ht="15.0" customHeight="true"/>
+    <row r="18" ht="15.0" customHeight="true"/>
+    <row r="19" ht="15.0" customHeight="true"/>
+    <row r="20" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
